--- a/Code/Results/Cases/Case_0_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_92/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0641956235326262</v>
+        <v>0.02101655400301894</v>
       </c>
       <c r="D2">
-        <v>0.05804797643321535</v>
+        <v>0.02481752633388368</v>
       </c>
       <c r="E2">
-        <v>0.1642424955160777</v>
+        <v>0.09892296873560014</v>
       </c>
       <c r="F2">
-        <v>0.3862538407913192</v>
+        <v>0.5649812616646059</v>
       </c>
       <c r="G2">
-        <v>0.0007849352611438515</v>
+        <v>0.002406798312569132</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2725157162539062</v>
+        <v>0.4206507165661506</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.631813588571447</v>
+        <v>1.185262995587038</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.063584074015793</v>
+        <v>0.3813610906196701</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.013139016205642</v>
+        <v>1.881629758608128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05614752681641733</v>
+        <v>0.0184129870248384</v>
       </c>
       <c r="D3">
-        <v>0.05176580044096113</v>
+        <v>0.02268513097104119</v>
       </c>
       <c r="E3">
-        <v>0.14354537349233</v>
+        <v>0.0951807999674088</v>
       </c>
       <c r="F3">
-        <v>0.3600457504514125</v>
+        <v>0.5664004778845353</v>
       </c>
       <c r="G3">
-        <v>0.0007893412693880109</v>
+        <v>0.002409639797639099</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.255700858029634</v>
+        <v>0.4225621436446154</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.168383023998388</v>
+        <v>1.036240164512833</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9218303124088791</v>
+        <v>0.3396403185953005</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9746159005272261</v>
+        <v>1.900692824880821</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05120772156995912</v>
+        <v>0.01680738971911921</v>
       </c>
       <c r="D4">
-        <v>0.04790704095700704</v>
+        <v>0.02136962688881994</v>
       </c>
       <c r="E4">
-        <v>0.1313657342919186</v>
+        <v>0.09301022381620427</v>
       </c>
       <c r="F4">
-        <v>0.3452936533470776</v>
+        <v>0.5678201097457247</v>
       </c>
       <c r="G4">
-        <v>0.000792128790362056</v>
+        <v>0.002411476264565655</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2463857852983864</v>
+        <v>0.4241486593886989</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.884061964671332</v>
+        <v>0.9444238881191893</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8353232494887379</v>
+        <v>0.3140570554271775</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9554046259339231</v>
+        <v>1.914244101005679</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04919445673073852</v>
+        <v>0.01615136934086792</v>
       </c>
       <c r="D5">
-        <v>0.0463337456448798</v>
+        <v>0.02083202703920506</v>
       </c>
       <c r="E5">
-        <v>0.1265223031467286</v>
+        <v>0.09215733320980846</v>
       </c>
       <c r="F5">
-        <v>0.339596661661794</v>
+        <v>0.5685360810889293</v>
       </c>
       <c r="G5">
-        <v>0.0007932858988746641</v>
+        <v>0.002412247789600631</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2428269977918553</v>
+        <v>0.4248986933522687</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.768213454065574</v>
+        <v>0.9069308774692786</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8001802871101731</v>
+        <v>0.3036402373050322</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9486227633448152</v>
+        <v>1.92022924927079</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04886012082509694</v>
+        <v>0.01604233436026448</v>
       </c>
       <c r="D6">
-        <v>0.04607243932323968</v>
+        <v>0.02074266826947735</v>
       </c>
       <c r="E6">
-        <v>0.1257249303572365</v>
+        <v>0.09201761247393847</v>
       </c>
       <c r="F6">
-        <v>0.3386690531962628</v>
+        <v>0.5686632581873923</v>
       </c>
       <c r="G6">
-        <v>0.000793479328695751</v>
+        <v>0.002412377300901471</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2422499201015285</v>
+        <v>0.4250294789571001</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.748976598670907</v>
+        <v>0.9007005995603663</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7943507595557406</v>
+        <v>0.3019110549079542</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9475578927987698</v>
+        <v>1.92125099458022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05118057189185521</v>
+        <v>0.01679854934557312</v>
       </c>
       <c r="D7">
-        <v>0.04788582682781595</v>
+        <v>0.02136238273642732</v>
       </c>
       <c r="E7">
-        <v>0.1312999453258072</v>
+        <v>0.09299859377683362</v>
       </c>
       <c r="F7">
-        <v>0.3452155764695064</v>
+        <v>0.5678292095440298</v>
       </c>
       <c r="G7">
-        <v>0.0007921443090782108</v>
+        <v>0.002411486575803966</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2463368512186577</v>
+        <v>0.4241583558886504</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.882499585800872</v>
+        <v>0.9439185535780439</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8348488869305939</v>
+        <v>0.3139165356654701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9553090143973719</v>
+        <v>1.914322946460928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06141983882423574</v>
+        <v>0.02012031516225221</v>
       </c>
       <c r="D8">
-        <v>0.0558819051998185</v>
+        <v>0.0240835867939424</v>
       </c>
       <c r="E8">
-        <v>0.1569883315704175</v>
+        <v>0.09760608227603029</v>
       </c>
       <c r="F8">
-        <v>0.3769254153967125</v>
+        <v>0.5653565831028047</v>
       </c>
       <c r="G8">
-        <v>0.0007864376977240635</v>
+        <v>0.00240775904924747</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2664981741123</v>
+        <v>0.4212238942855677</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.471948877996795</v>
+        <v>1.133946729250681</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014582331076696</v>
+        <v>0.3669689026642757</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.998890864041627</v>
+        <v>1.887818614125834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08154771742506739</v>
+        <v>0.02657764104198179</v>
       </c>
       <c r="D9">
-        <v>0.07157350000295537</v>
+        <v>0.02936918327839777</v>
       </c>
       <c r="E9">
-        <v>0.2121918038413639</v>
+        <v>0.1076655713164314</v>
       </c>
       <c r="F9">
-        <v>0.4508109566283593</v>
+        <v>0.5648763588663144</v>
       </c>
       <c r="G9">
-        <v>0.0007758753290979065</v>
+        <v>0.002401174434285493</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3148424055741614</v>
+        <v>0.418759948437291</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.63179667242423</v>
+        <v>1.504007111875467</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.372429603820223</v>
+        <v>0.4712686495641663</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.122971791070995</v>
+        <v>1.850559472265843</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09641883636504645</v>
+        <v>0.03128624870704755</v>
       </c>
       <c r="D10">
-        <v>0.08314544727794271</v>
+        <v>0.03322006861498039</v>
       </c>
       <c r="E10">
-        <v>0.2566576661868609</v>
+        <v>0.1157029126085973</v>
       </c>
       <c r="F10">
-        <v>0.5138287857561181</v>
+        <v>0.5672136739184381</v>
       </c>
       <c r="G10">
-        <v>0.0007684621729353879</v>
+        <v>0.002396774220440914</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3569236105436673</v>
+        <v>0.4189763103833641</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.489652260537355</v>
+        <v>1.774235548894978</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.640432966792602</v>
+        <v>0.5480652795484247</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.242707471958994</v>
+        <v>1.83224723229651</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1032152035353988</v>
+        <v>0.03342039701824717</v>
       </c>
       <c r="D11">
-        <v>0.08842837584037255</v>
+        <v>0.034964594817815</v>
       </c>
       <c r="E11">
-        <v>0.2779734223360322</v>
+        <v>0.1195045597869822</v>
       </c>
       <c r="F11">
-        <v>0.5447807006209402</v>
+        <v>0.5688669545433527</v>
       </c>
       <c r="G11">
-        <v>0.0007651564356742789</v>
+        <v>0.002394866487799201</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3777812325663774</v>
+        <v>0.4195192658983302</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.881972182841082</v>
+        <v>1.896795395917081</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.763905205807717</v>
+        <v>0.5830404430761149</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.304602153259992</v>
+        <v>1.825903855314664</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1057944881166151</v>
+        <v>0.0342273927904273</v>
       </c>
       <c r="D12">
-        <v>0.0904324111042456</v>
+        <v>0.03562412496393819</v>
       </c>
       <c r="E12">
-        <v>0.2862237324958912</v>
+        <v>0.1209654318470967</v>
       </c>
       <c r="F12">
-        <v>0.5568651613720235</v>
+        <v>0.5695783019094591</v>
       </c>
       <c r="G12">
-        <v>0.0007639134344002677</v>
+        <v>0.002394157515843764</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3859523561910265</v>
+        <v>0.419789139071348</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.030905738252613</v>
+        <v>1.943150854014505</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.810925218548689</v>
+        <v>0.5962903695138948</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.329219370174883</v>
+        <v>1.823789073300503</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1052387228188536</v>
+        <v>0.03405364395666766</v>
       </c>
       <c r="D13">
-        <v>0.09000063671781078</v>
+        <v>0.03548213219106344</v>
       </c>
       <c r="E13">
-        <v>0.2844385671724581</v>
+        <v>0.1206498551511359</v>
       </c>
       <c r="F13">
-        <v>0.5542457927170616</v>
+        <v>0.5694213004087132</v>
       </c>
       <c r="G13">
-        <v>0.0007641807579400473</v>
+        <v>0.002394309608757524</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3841799842654368</v>
+        <v>0.4197281532562158</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.998812538188304</v>
+        <v>1.933169872582766</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.800786209633586</v>
+        <v>0.593436514599361</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.3238633009681</v>
+        <v>1.824231725564232</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1034272828243132</v>
+        <v>0.03348681249136121</v>
       </c>
       <c r="D14">
-        <v>0.08859317389688925</v>
+        <v>0.03501887671359327</v>
       </c>
       <c r="E14">
-        <v>0.2786484688481252</v>
+        <v>0.1196243182492651</v>
       </c>
       <c r="F14">
-        <v>0.5457673969332149</v>
+        <v>0.5689237657429587</v>
       </c>
       <c r="G14">
-        <v>0.0007650540012639315</v>
+        <v>0.002394807891067698</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3784478504103248</v>
+        <v>0.4195401785364794</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.89421717517655</v>
+        <v>1.900610208731962</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.767768041996831</v>
+        <v>0.5841304113386343</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.306603125877444</v>
+        <v>1.825724103534327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1023184942082338</v>
+        <v>0.03313945976387345</v>
       </c>
       <c r="D15">
-        <v>0.08773154392589078</v>
+        <v>0.03473497700223049</v>
       </c>
       <c r="E15">
-        <v>0.2751258036688995</v>
+        <v>0.1189989280565911</v>
       </c>
       <c r="F15">
-        <v>0.5406225837744998</v>
+        <v>0.5686301311938422</v>
       </c>
       <c r="G15">
-        <v>0.000765590011636678</v>
+        <v>0.002395114852505879</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3749730952783707</v>
+        <v>0.4194334183527744</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.830199992567145</v>
+        <v>1.880659205057157</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.747579060634095</v>
+        <v>0.5784308778678451</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.296187778455533</v>
+        <v>1.826675692606898</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09597540444173092</v>
+        <v>0.03114661669943075</v>
       </c>
       <c r="D16">
-        <v>0.08280064039583124</v>
+        <v>0.03310591018946241</v>
       </c>
       <c r="E16">
-        <v>0.2552883597779712</v>
+        <v>0.1154574229626633</v>
       </c>
       <c r="F16">
-        <v>0.5118549145118507</v>
+        <v>0.5671175386851957</v>
       </c>
       <c r="G16">
-        <v>0.0007686794861836663</v>
+        <v>0.002396900780339492</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3555972115174413</v>
+        <v>0.4189498015589876</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.464061018441839</v>
+        <v>1.766218362242626</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.632398412756203</v>
+        <v>0.5457803613067682</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.238821232857475</v>
+        <v>1.832701905968833</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0920929458712294</v>
+        <v>0.02992204372961282</v>
       </c>
       <c r="D17">
-        <v>0.07978104986539591</v>
+        <v>0.0321046421796396</v>
       </c>
       <c r="E17">
-        <v>0.243412405158324</v>
+        <v>0.1133223254089728</v>
       </c>
       <c r="F17">
-        <v>0.494816130735984</v>
+        <v>0.5663410459643288</v>
       </c>
       <c r="G17">
-        <v>0.0007705913010830307</v>
+        <v>0.002398020405061221</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3441678810513764</v>
+        <v>0.4187672190697143</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.240027673789939</v>
+        <v>1.695916591164064</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.562164677650003</v>
+        <v>0.5257604542530459</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.205606931476126</v>
+        <v>1.836908835611268</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08986274270611716</v>
+        <v>0.02921696768969184</v>
       </c>
       <c r="D18">
-        <v>0.07804597732906871</v>
+        <v>0.03152805823111038</v>
       </c>
       <c r="E18">
-        <v>0.2366826367182213</v>
+        <v>0.1121079398655098</v>
       </c>
       <c r="F18">
-        <v>0.4852286609812992</v>
+        <v>0.5659499375062111</v>
       </c>
       <c r="G18">
-        <v>0.000771697238900607</v>
+        <v>0.002398673230320504</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3377537303620954</v>
+        <v>0.4187040233199042</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.111360447608092</v>
+        <v>1.655446330562825</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.5219119587791</v>
+        <v>0.5142493065813198</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.187194754975792</v>
+        <v>1.839515476501418</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08910809674188158</v>
+        <v>0.02897811605998868</v>
       </c>
       <c r="D19">
-        <v>0.07745878315914467</v>
+        <v>0.03133272106550322</v>
       </c>
       <c r="E19">
-        <v>0.234420757255549</v>
+        <v>0.1116991060133969</v>
       </c>
       <c r="F19">
-        <v>0.4820180328749544</v>
+        <v>0.5658270352662882</v>
       </c>
       <c r="G19">
-        <v>0.0007720727967155923</v>
+        <v>0.002398895787063663</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3356086737040727</v>
+        <v>0.4186897985807647</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.067826628188527</v>
+        <v>1.64173793430291</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.508306631057096</v>
+        <v>0.510352482803512</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.181076292771792</v>
+        <v>1.84043009640439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09250593381837291</v>
+        <v>0.03005247784096809</v>
       </c>
       <c r="D20">
-        <v>0.08010230726621614</v>
+        <v>0.03221129964811098</v>
       </c>
       <c r="E20">
-        <v>0.2446660183900988</v>
+        <v>0.1135481931985538</v>
       </c>
       <c r="F20">
-        <v>0.496607670694857</v>
+        <v>0.5664179567005689</v>
       </c>
       <c r="G20">
-        <v>0.0007703871370644105</v>
+        <v>0.002397900304135243</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3453678416649169</v>
+        <v>0.4187823244828834</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.263856156366671</v>
+        <v>1.703403926489329</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.569626011073865</v>
+        <v>0.5278912181853315</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.209070275534316</v>
+        <v>1.83644164302703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1039591838964782</v>
+        <v>0.03365333639044366</v>
       </c>
       <c r="D21">
-        <v>0.08900647792152228</v>
+        <v>0.03515497581319238</v>
       </c>
       <c r="E21">
-        <v>0.2803441300827245</v>
+        <v>0.119924963143589</v>
       </c>
       <c r="F21">
-        <v>0.5482475436850365</v>
+        <v>0.5690675855937357</v>
       </c>
       <c r="G21">
-        <v>0.000764797275749659</v>
+        <v>0.002394661169014321</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3801238933629421</v>
+        <v>0.4195936443204928</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.924928707413642</v>
+        <v>1.910175290296309</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.777458782502578</v>
+        <v>0.5868636889529739</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.311639925303865</v>
+        <v>1.82527794554332</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1114780600807279</v>
+        <v>0.03599992883481207</v>
       </c>
       <c r="D22">
-        <v>0.09484672970359043</v>
+        <v>0.03707250142548446</v>
       </c>
       <c r="E22">
-        <v>0.3047141229245369</v>
+        <v>0.1242167009134008</v>
       </c>
       <c r="F22">
-        <v>0.5841352571022824</v>
+        <v>0.5712965860696002</v>
       </c>
       <c r="G22">
-        <v>0.0007611949295744774</v>
+        <v>0.002392622545759723</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4044428646654552</v>
+        <v>0.420498649194414</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.359175725209411</v>
+        <v>2.044988968128678</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.91484823575135</v>
+        <v>0.6254381267771976</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.385606167927961</v>
+        <v>1.819657266264215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1074616288396015</v>
+        <v>0.03474813992124837</v>
       </c>
       <c r="D23">
-        <v>0.09172748174687939</v>
+        <v>0.03604967481366117</v>
       </c>
       <c r="E23">
-        <v>0.2916032410677687</v>
+        <v>0.1219146408997887</v>
       </c>
       <c r="F23">
-        <v>0.564773288386867</v>
+        <v>0.5700612769333802</v>
       </c>
       <c r="G23">
-        <v>0.0007631131748148316</v>
+        <v>0.002393703450533735</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3913073554517652</v>
+        <v>0.419981226891899</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.127183307877942</v>
+        <v>1.973066716327537</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.841364057519797</v>
+        <v>0.6048472990664635</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.345455522907116</v>
+        <v>1.822503299187161</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09231921621433514</v>
+        <v>0.02999351185563626</v>
       </c>
       <c r="D24">
-        <v>0.07995706395731617</v>
+        <v>0.0321630827361119</v>
       </c>
       <c r="E24">
-        <v>0.2440989566248106</v>
+        <v>0.1134460375621344</v>
       </c>
       <c r="F24">
-        <v>0.4957970691205489</v>
+        <v>0.5663830131088829</v>
       </c>
       <c r="G24">
-        <v>0.0007704794184011931</v>
+        <v>0.002397954573351587</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3448248532683138</v>
+        <v>0.4187753652289032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.253082891946917</v>
+        <v>1.700019066599396</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.566252354020804</v>
+        <v>0.5269279042803134</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.207502378058166</v>
+        <v>1.836652275231188</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07609210990247561</v>
+        <v>0.02483693816783727</v>
       </c>
       <c r="D25">
-        <v>0.0673237466188823</v>
+        <v>0.02794487683794245</v>
       </c>
       <c r="E25">
-        <v>0.1966464631152078</v>
+        <v>0.1048322674735545</v>
       </c>
       <c r="F25">
-        <v>0.4294120959367902</v>
+        <v>0.5645357950868473</v>
       </c>
       <c r="G25">
-        <v>0.0007786690345423512</v>
+        <v>0.00240287859285901</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3007032506208986</v>
+        <v>0.419072100909581</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.317280437077329</v>
+        <v>1.404180975095073</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.27486801499164</v>
+        <v>0.4430238656805301</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.08477390190464</v>
+        <v>1.859054220872167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_92/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02101655400301894</v>
+        <v>0.06419562353285357</v>
       </c>
       <c r="D2">
-        <v>0.02481752633388368</v>
+        <v>0.05804797643302351</v>
       </c>
       <c r="E2">
-        <v>0.09892296873560014</v>
+        <v>0.164242495516099</v>
       </c>
       <c r="F2">
-        <v>0.5649812616646059</v>
+        <v>0.3862538407913121</v>
       </c>
       <c r="G2">
-        <v>0.002406798312569132</v>
+        <v>0.0007849352612209428</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4206507165661506</v>
+        <v>0.2725157162538991</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.185262995587038</v>
+        <v>3.631813588571447</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3813610906196701</v>
+        <v>1.0635840740158</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.881629758608128</v>
+        <v>1.013139016205628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0184129870248384</v>
+        <v>0.05614752681587021</v>
       </c>
       <c r="D3">
-        <v>0.02268513097104119</v>
+        <v>0.05176580044085455</v>
       </c>
       <c r="E3">
-        <v>0.0951807999674088</v>
+        <v>0.14354537349233</v>
       </c>
       <c r="F3">
-        <v>0.5664004778845353</v>
+        <v>0.3600457504514054</v>
       </c>
       <c r="G3">
-        <v>0.002409639797639099</v>
+        <v>0.0007893412693894849</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4225621436446154</v>
+        <v>0.2557008580296269</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.036240164512833</v>
+        <v>3.168383023998558</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3396403185953005</v>
+        <v>0.9218303124088649</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.900692824880821</v>
+        <v>0.9746159005271551</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01680738971911921</v>
+        <v>0.05120772156995201</v>
       </c>
       <c r="D4">
-        <v>0.02136962688881994</v>
+        <v>0.04790704095701415</v>
       </c>
       <c r="E4">
-        <v>0.09301022381620427</v>
+        <v>0.1313657342919399</v>
       </c>
       <c r="F4">
-        <v>0.5678201097457247</v>
+        <v>0.3452936533470847</v>
       </c>
       <c r="G4">
-        <v>0.002411476264565655</v>
+        <v>0.0007921287903047302</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4241486593886989</v>
+        <v>0.2463857852983864</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9444238881191893</v>
+        <v>2.884061964671361</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3140570554271775</v>
+        <v>0.835323249488745</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.914244101005679</v>
+        <v>0.9554046259339231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01615136934086792</v>
+        <v>0.04919445673073852</v>
       </c>
       <c r="D5">
-        <v>0.02083202703920506</v>
+        <v>0.04633374564477322</v>
       </c>
       <c r="E5">
-        <v>0.09215733320980846</v>
+        <v>0.1265223031467251</v>
       </c>
       <c r="F5">
-        <v>0.5685360810889293</v>
+        <v>0.339596661661794</v>
       </c>
       <c r="G5">
-        <v>0.002412247789600631</v>
+        <v>0.0007932858988916072</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4248986933522687</v>
+        <v>0.2428269977918553</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9069308774692786</v>
+        <v>2.768213454065574</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3036402373050322</v>
+        <v>0.8001802871101731</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.92022924927079</v>
+        <v>0.948622763344801</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01604233436026448</v>
+        <v>0.04886012082546642</v>
       </c>
       <c r="D6">
-        <v>0.02074266826947735</v>
+        <v>0.04607243932323257</v>
       </c>
       <c r="E6">
-        <v>0.09201761247393847</v>
+        <v>0.1257249303572365</v>
       </c>
       <c r="F6">
-        <v>0.5686632581873923</v>
+        <v>0.3386690531962628</v>
       </c>
       <c r="G6">
-        <v>0.002412377300901471</v>
+        <v>0.0007934793286208388</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4250294789571001</v>
+        <v>0.242249920101532</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9007005995603663</v>
+        <v>2.748976598670794</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3019110549079542</v>
+        <v>0.7943507595557406</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.92125099458022</v>
+        <v>0.9475578927987698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01679854934557312</v>
+        <v>0.05118057189177705</v>
       </c>
       <c r="D7">
-        <v>0.02136238273642732</v>
+        <v>0.04788582682803622</v>
       </c>
       <c r="E7">
-        <v>0.09299859377683362</v>
+        <v>0.1312999453257788</v>
       </c>
       <c r="F7">
-        <v>0.5678292095440298</v>
+        <v>0.3452155764695206</v>
       </c>
       <c r="G7">
-        <v>0.002411486575803966</v>
+        <v>0.0007921443090943969</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4241583558886504</v>
+        <v>0.2463368512186719</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9439185535780439</v>
+        <v>2.882499585800957</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3139165356654701</v>
+        <v>0.834848886930601</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.914322946460928</v>
+        <v>0.9553090143973151</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02012031516225221</v>
+        <v>0.06141983882441338</v>
       </c>
       <c r="D8">
-        <v>0.0240835867939424</v>
+        <v>0.05588190519979719</v>
       </c>
       <c r="E8">
-        <v>0.09760608227603029</v>
+        <v>0.1569883315704246</v>
       </c>
       <c r="F8">
-        <v>0.5653565831028047</v>
+        <v>0.3769254153966841</v>
       </c>
       <c r="G8">
-        <v>0.00240775904924747</v>
+        <v>0.0007864376976666754</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4212238942855677</v>
+        <v>0.2664981741123</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.133946729250681</v>
+        <v>3.471948877996908</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3669689026642757</v>
+        <v>1.014582331076689</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.887818614125834</v>
+        <v>0.9988908640415701</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02657764104198179</v>
+        <v>0.0815477174249537</v>
       </c>
       <c r="D9">
-        <v>0.02936918327839777</v>
+        <v>0.07157350000291984</v>
       </c>
       <c r="E9">
-        <v>0.1076655713164314</v>
+        <v>0.2121918038413639</v>
       </c>
       <c r="F9">
-        <v>0.5648763588663144</v>
+        <v>0.4508109566283593</v>
       </c>
       <c r="G9">
-        <v>0.002401174434285493</v>
+        <v>0.0007758753291557491</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.418759948437291</v>
+        <v>0.3148424055741543</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.504007111875467</v>
+        <v>4.631796672424514</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4712686495641663</v>
+        <v>1.372429603820223</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.850559472265843</v>
+        <v>1.122971791070995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03128624870704755</v>
+        <v>0.09641883636527382</v>
       </c>
       <c r="D10">
-        <v>0.03322006861498039</v>
+        <v>0.08314544727807061</v>
       </c>
       <c r="E10">
-        <v>0.1157029126085973</v>
+        <v>0.2566576661868396</v>
       </c>
       <c r="F10">
-        <v>0.5672136739184381</v>
+        <v>0.513828785756111</v>
       </c>
       <c r="G10">
-        <v>0.002396774220440914</v>
+        <v>0.0007684621729077585</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4189763103833641</v>
+        <v>0.3569236105436673</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.774235548894978</v>
+        <v>5.489652260537412</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5480652795484247</v>
+        <v>1.640432966792659</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.83224723229651</v>
+        <v>1.242707471958994</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03342039701824717</v>
+        <v>0.1032152035353988</v>
       </c>
       <c r="D11">
-        <v>0.034964594817815</v>
+        <v>0.08842837584059993</v>
       </c>
       <c r="E11">
-        <v>0.1195045597869822</v>
+        <v>0.277973422336018</v>
       </c>
       <c r="F11">
-        <v>0.5688669545433527</v>
+        <v>0.5447807006209402</v>
       </c>
       <c r="G11">
-        <v>0.002394866487799201</v>
+        <v>0.0007651564356228448</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4195192658983302</v>
+        <v>0.3777812325663845</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.896795395917081</v>
+        <v>5.881972182841082</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5830404430761149</v>
+        <v>1.763905205807689</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.825903855314664</v>
+        <v>1.304602153260049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0342273927904273</v>
+        <v>0.1057944881167003</v>
       </c>
       <c r="D12">
-        <v>0.03562412496393819</v>
+        <v>0.09043241110435929</v>
       </c>
       <c r="E12">
-        <v>0.1209654318470967</v>
+        <v>0.2862237324959125</v>
       </c>
       <c r="F12">
-        <v>0.5695783019094591</v>
+        <v>0.5568651613720235</v>
       </c>
       <c r="G12">
-        <v>0.002394157515843764</v>
+        <v>0.0007639134344241683</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.419789139071348</v>
+        <v>0.3859523561910265</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.943150854014505</v>
+        <v>6.030905738252613</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5962903695138948</v>
+        <v>1.810925218548661</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.823789073300503</v>
+        <v>1.329219370174826</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03405364395666766</v>
+        <v>0.1052387228191805</v>
       </c>
       <c r="D13">
-        <v>0.03548213219106344</v>
+        <v>0.09000063671787473</v>
       </c>
       <c r="E13">
-        <v>0.1206498551511359</v>
+        <v>0.2844385671724368</v>
       </c>
       <c r="F13">
-        <v>0.5694213004087132</v>
+        <v>0.5542457927170616</v>
       </c>
       <c r="G13">
-        <v>0.002394309608757524</v>
+        <v>0.0007641807579175932</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4197281532562158</v>
+        <v>0.3841799842654368</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.933169872582766</v>
+        <v>5.998812538188474</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.593436514599361</v>
+        <v>1.800786209633571</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.824231725564232</v>
+        <v>1.323863300968128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03348681249136121</v>
+        <v>0.1034272828242138</v>
       </c>
       <c r="D14">
-        <v>0.03501887671359327</v>
+        <v>0.08859317389688215</v>
       </c>
       <c r="E14">
-        <v>0.1196243182492651</v>
+        <v>0.2786484688481394</v>
       </c>
       <c r="F14">
-        <v>0.5689237657429587</v>
+        <v>0.5457673969332006</v>
       </c>
       <c r="G14">
-        <v>0.002394807891067698</v>
+        <v>0.0007650540011843013</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4195401785364794</v>
+        <v>0.3784478504103248</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.900610208731962</v>
+        <v>5.894217175176379</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5841304113386343</v>
+        <v>1.767768041996831</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.825724103534327</v>
+        <v>1.306603125877359</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03313945976387345</v>
+        <v>0.102318494208248</v>
       </c>
       <c r="D15">
-        <v>0.03473497700223049</v>
+        <v>0.08773154392594051</v>
       </c>
       <c r="E15">
-        <v>0.1189989280565911</v>
+        <v>0.2751258036688995</v>
       </c>
       <c r="F15">
-        <v>0.5686301311938422</v>
+        <v>0.5406225837744927</v>
       </c>
       <c r="G15">
-        <v>0.002395114852505879</v>
+        <v>0.0007655900116423846</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4194334183527744</v>
+        <v>0.3749730952783636</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.880659205057157</v>
+        <v>5.830199992567202</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5784308778678451</v>
+        <v>1.747579060634095</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.826675692606898</v>
+        <v>1.296187778455533</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03114661669943075</v>
+        <v>0.09597540444173092</v>
       </c>
       <c r="D16">
-        <v>0.03310591018946241</v>
+        <v>0.08280064039595203</v>
       </c>
       <c r="E16">
-        <v>0.1154574229626633</v>
+        <v>0.2552883597779712</v>
       </c>
       <c r="F16">
-        <v>0.5671175386851957</v>
+        <v>0.5118549145118578</v>
       </c>
       <c r="G16">
-        <v>0.002396900780339492</v>
+        <v>0.0007686794861773292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4189498015589876</v>
+        <v>0.3555972115174413</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.766218362242626</v>
+        <v>5.464061018441896</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5457803613067682</v>
+        <v>1.632398412756245</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.832701905968833</v>
+        <v>1.238821232857532</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02992204372961282</v>
+        <v>0.0920929458713573</v>
       </c>
       <c r="D17">
-        <v>0.0321046421796396</v>
+        <v>0.07978104986543855</v>
       </c>
       <c r="E17">
-        <v>0.1133223254089728</v>
+        <v>0.2434124051583595</v>
       </c>
       <c r="F17">
-        <v>0.5663410459643288</v>
+        <v>0.494816130735984</v>
       </c>
       <c r="G17">
-        <v>0.002398020405061221</v>
+        <v>0.0007705913011035688</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4187672190697143</v>
+        <v>0.3441678810513764</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.695916591164064</v>
+        <v>5.240027673789996</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5257604542530459</v>
+        <v>1.562164677649989</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.836908835611268</v>
+        <v>1.205606931476154</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02921696768969184</v>
+        <v>0.08986274270580452</v>
       </c>
       <c r="D18">
-        <v>0.03152805823111038</v>
+        <v>0.07804597732917529</v>
       </c>
       <c r="E18">
-        <v>0.1121079398655098</v>
+        <v>0.2366826367182355</v>
       </c>
       <c r="F18">
-        <v>0.5659499375062111</v>
+        <v>0.4852286609812992</v>
       </c>
       <c r="G18">
-        <v>0.002398673230320504</v>
+        <v>0.000771697238842867</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4187040233199042</v>
+        <v>0.3377537303621096</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.655446330562825</v>
+        <v>5.11136044760832</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5142493065813198</v>
+        <v>1.521911958779086</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.839515476501418</v>
+        <v>1.187194754975849</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02897811605998868</v>
+        <v>0.08910809674166842</v>
       </c>
       <c r="D19">
-        <v>0.03133272106550322</v>
+        <v>0.07745878315914467</v>
       </c>
       <c r="E19">
-        <v>0.1116991060133969</v>
+        <v>0.234420757255549</v>
       </c>
       <c r="F19">
-        <v>0.5658270352662882</v>
+        <v>0.4820180328749402</v>
       </c>
       <c r="G19">
-        <v>0.002398895787063663</v>
+        <v>0.0007720727967162055</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4186897985807647</v>
+        <v>0.3356086737040869</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.64173793430291</v>
+        <v>5.067826628188584</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.510352482803512</v>
+        <v>1.50830663105711</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.84043009640439</v>
+        <v>1.18107629277182</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03005247784096809</v>
+        <v>0.09250593381828764</v>
       </c>
       <c r="D20">
-        <v>0.03221129964811098</v>
+        <v>0.08010230726640799</v>
       </c>
       <c r="E20">
-        <v>0.1135481931985538</v>
+        <v>0.2446660183900775</v>
       </c>
       <c r="F20">
-        <v>0.5664179567005689</v>
+        <v>0.4966076706948428</v>
       </c>
       <c r="G20">
-        <v>0.002397900304135243</v>
+        <v>0.0007703871370658088</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4187823244828834</v>
+        <v>0.3453678416649026</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.703403926489329</v>
+        <v>5.263856156366842</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5278912181853315</v>
+        <v>1.569626011073879</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.83644164302703</v>
+        <v>1.209070275534316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03365333639044366</v>
+        <v>0.1039591838968619</v>
       </c>
       <c r="D21">
-        <v>0.03515497581319238</v>
+        <v>0.08900647792152228</v>
       </c>
       <c r="E21">
-        <v>0.119924963143589</v>
+        <v>0.2803441300827245</v>
       </c>
       <c r="F21">
-        <v>0.5690675855937357</v>
+        <v>0.5482475436850294</v>
       </c>
       <c r="G21">
-        <v>0.002394661169014321</v>
+        <v>0.0007647972757734391</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4195936443204928</v>
+        <v>0.380123893362935</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.910175290296309</v>
+        <v>5.924928707413642</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5868636889529739</v>
+        <v>1.777458782502549</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.82527794554332</v>
+        <v>1.311639925303837</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03599992883481207</v>
+        <v>0.1114780600807279</v>
       </c>
       <c r="D22">
-        <v>0.03707250142548446</v>
+        <v>0.09484672970363306</v>
       </c>
       <c r="E22">
-        <v>0.1242167009134008</v>
+        <v>0.3047141229245725</v>
       </c>
       <c r="F22">
-        <v>0.5712965860696002</v>
+        <v>0.5841352571022469</v>
       </c>
       <c r="G22">
-        <v>0.002392622545759723</v>
+        <v>0.0007611949295264841</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.420498649194414</v>
+        <v>0.4044428646654481</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.044988968128678</v>
+        <v>6.359175725209354</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6254381267771976</v>
+        <v>1.914848235751336</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.819657266264215</v>
+        <v>1.385606167927932</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03474813992124837</v>
+        <v>0.1074616288396015</v>
       </c>
       <c r="D23">
-        <v>0.03604967481366117</v>
+        <v>0.09172748174687229</v>
       </c>
       <c r="E23">
-        <v>0.1219146408997887</v>
+        <v>0.2916032410677616</v>
       </c>
       <c r="F23">
-        <v>0.5700612769333802</v>
+        <v>0.5647732883868386</v>
       </c>
       <c r="G23">
-        <v>0.002393703450533735</v>
+        <v>0.0007631131748656175</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.419981226891899</v>
+        <v>0.3913073554517794</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.973066716327537</v>
+        <v>6.127183307877999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6048472990664635</v>
+        <v>1.841364057519797</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.822503299187161</v>
+        <v>1.345455522907173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02999351185563626</v>
+        <v>0.09231921621456252</v>
       </c>
       <c r="D24">
-        <v>0.0321630827361119</v>
+        <v>0.07995706395733038</v>
       </c>
       <c r="E24">
-        <v>0.1134460375621344</v>
+        <v>0.2440989566248106</v>
       </c>
       <c r="F24">
-        <v>0.5663830131088829</v>
+        <v>0.4957970691205418</v>
       </c>
       <c r="G24">
-        <v>0.002397954573351587</v>
+        <v>0.0007704794184009791</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4187753652289032</v>
+        <v>0.3448248532682996</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.700019066599396</v>
+        <v>5.25308289194686</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5269279042803134</v>
+        <v>1.566252354020804</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.836652275231188</v>
+        <v>1.207502378058109</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02483693816783727</v>
+        <v>0.07609210990256088</v>
       </c>
       <c r="D25">
-        <v>0.02794487683794245</v>
+        <v>0.06732374661877571</v>
       </c>
       <c r="E25">
-        <v>0.1048322674735545</v>
+        <v>0.1966464631151794</v>
       </c>
       <c r="F25">
-        <v>0.5645357950868473</v>
+        <v>0.4294120959367831</v>
       </c>
       <c r="G25">
-        <v>0.00240287859285901</v>
+        <v>0.0007786690345804262</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.419072100909581</v>
+        <v>0.3007032506208986</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.404180975095073</v>
+        <v>4.317280437077272</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4430238656805301</v>
+        <v>1.274868014991668</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.859054220872167</v>
+        <v>1.084773901904583</v>
       </c>
     </row>
   </sheetData>
